--- a/dev_projects/automatic_differentiation/cases_summary.xlsx
+++ b/dev_projects/automatic_differentiation/cases_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="18">
   <si>
     <t>case</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>snopt</t>
+  </si>
+  <si>
+    <t>two_stage_config.yaml</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -143,8 +146,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,26 +158,26 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,7 +484,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -489,12 +492,12 @@
   <cols>
     <col min="1" max="1" style="10" width="4.147857142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="13.147857142857141" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="13" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -527,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -551,10 +554,10 @@
         <v>0.000001</v>
       </c>
       <c r="I2" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -580,10 +583,10 @@
         <v>0.000001</v>
       </c>
       <c r="I3" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -609,10 +612,10 @@
         <v>0.000001</v>
       </c>
       <c r="I4" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -638,10 +641,10 @@
         <v>0.000001</v>
       </c>
       <c r="I5" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -667,10 +670,10 @@
         <v>0.000001</v>
       </c>
       <c r="I6" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -694,10 +697,10 @@
         <v>0.000001</v>
       </c>
       <c r="I7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -723,10 +726,10 @@
         <v>0.000001</v>
       </c>
       <c r="I8" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -752,10 +755,10 @@
         <v>0.000001</v>
       </c>
       <c r="I9" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -781,10 +784,10 @@
         <v>0.000001</v>
       </c>
       <c r="I10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -810,10 +813,10 @@
         <v>0.000001</v>
       </c>
       <c r="I11" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -837,10 +840,10 @@
         <v>0.000001</v>
       </c>
       <c r="I12" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -866,10 +869,10 @@
         <v>0.000001</v>
       </c>
       <c r="I13" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -895,10 +898,10 @@
         <v>0.000001</v>
       </c>
       <c r="I14" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -924,10 +927,10 @@
         <v>0.000001</v>
       </c>
       <c r="I15" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -953,30 +956,89 @@
         <v>0.000001</v>
       </c>
       <c r="I16" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="5">
+        <v>100</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <v>0.000001</v>
+      </c>
+      <c r="I17" s="9">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="5">
+        <v>101</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>0.000001</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="5">
+        <v>102</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>0.000001</v>
+      </c>
+      <c r="I19" s="9">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dev_projects/automatic_differentiation/cases_summary.xlsx
+++ b/dev_projects/automatic_differentiation/cases_summary.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/sprdi_dtu_dk/Documents/Srinivas/Meanline_code/turboflow/dev_projects/automatic_differentiation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_3754EB85D2FF4EA0C22EFA463DF799C6B8A05905" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A80A5AC3-43FA-426F-ABDA-4CE607EDAB96}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_3754EB85D2FF4EA0C22EFA463DF799C6B8A05905" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BFD1843-DE9A-4A10-919C-D3B930BA89DC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="20">
   <si>
     <t>case</t>
   </si>
@@ -74,6 +87,12 @@
   </si>
   <si>
     <t>two_stage_config.yaml</t>
+  </si>
+  <si>
+    <t>three_stage_trial_config.yaml</t>
+  </si>
+  <si>
+    <t>four_stage_trial_config.yaml</t>
   </si>
 </sst>
 </file>
@@ -155,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,6 +206,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,10 +526,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I61"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,9 +593,7 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="5">
         <v>1E-8</v>
       </c>
@@ -710,9 +736,7 @@
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="5">
         <v>1E-8</v>
       </c>
@@ -855,9 +879,7 @@
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="5">
         <v>1E-8</v>
       </c>
@@ -1000,9 +1022,7 @@
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1145,9 +1165,7 @@
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1290,9 +1308,7 @@
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1435,9 +1451,7 @@
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="5">
         <v>1E-8</v>
       </c>
@@ -1580,9 +1594,7 @@
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="5">
         <v>1E-8</v>
       </c>
@@ -1725,9 +1737,7 @@
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
+      <c r="G42" s="6"/>
       <c r="H42" s="5">
         <v>1E-8</v>
       </c>
@@ -1870,9 +1880,7 @@
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
+      <c r="G47" s="6"/>
       <c r="H47" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -2015,9 +2023,7 @@
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="6">
-        <v>0</v>
-      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -2160,9 +2166,7 @@
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -2283,6 +2287,1782 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I61" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8">
+        <v>3</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="15">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="I62" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8">
+        <v>3</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H63" s="15">
+        <f t="shared" ref="H63:H76" si="0">0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="I63" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="13">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8">
+        <v>3</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H64" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I64" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="13">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8">
+        <v>3</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H65" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I65" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="13">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8">
+        <v>3</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H66" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I66" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="13">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8">
+        <v>3</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I67" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="13">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8">
+        <v>3</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H68" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I68" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="13">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8">
+        <v>3</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H69" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I69" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8">
+        <v>3</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H70" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I70" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8">
+        <v>3</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H71" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I71" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8">
+        <v>3</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I72" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="13">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8">
+        <v>3</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H73" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I73" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8">
+        <v>3</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H74" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I74" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="13">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8">
+        <v>3</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H75" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I75" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="13">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8">
+        <v>3</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H76" s="15">
+        <f t="shared" si="0"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I76" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="13">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8">
+        <v>3</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77" s="14">
+        <f>0.000001</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I77" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="13">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8">
+        <v>3</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H78" s="14">
+        <f t="shared" ref="H78:H91" si="1">0.000001</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I78" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="13">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8">
+        <v>3</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H79" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I79" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="13">
+        <v>79</v>
+      </c>
+      <c r="B80" s="8">
+        <v>3</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H80" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I80" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="13">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8">
+        <v>3</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H81" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I81" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="13">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8">
+        <v>3</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I82" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="13">
+        <v>82</v>
+      </c>
+      <c r="B83" s="8">
+        <v>3</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H83" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I83" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="13">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8">
+        <v>3</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H84" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I84" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="13">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8">
+        <v>3</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H85" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I85" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="13">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8">
+        <v>3</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H86" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I86" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="13">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8">
+        <v>3</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I87" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="13">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8">
+        <v>3</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H88" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I88" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="13">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8">
+        <v>3</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H89" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I89" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="13">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8">
+        <v>3</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H90" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I90" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="13">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8">
+        <v>3</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H91" s="14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I91" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="13">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8">
+        <v>4</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="15">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="I92" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="13">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8">
+        <v>4</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H93" s="15">
+        <f t="shared" ref="H93:H106" si="2">0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="I93" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="13">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8">
+        <v>4</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H94" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I94" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="13">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8">
+        <v>4</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H95" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I95" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="13">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8">
+        <v>4</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H96" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I96" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="13">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8">
+        <v>4</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I97" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="13">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8">
+        <v>4</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H98" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I98" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="13">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8">
+        <v>4</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H99" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I99" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="13">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8">
+        <v>4</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H100" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I100" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="13">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8">
+        <v>4</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H101" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I101" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="13">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8">
+        <v>4</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I102" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="13">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8">
+        <v>4</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H103" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I103" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="13">
+        <v>103</v>
+      </c>
+      <c r="B104" s="8">
+        <v>4</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H104" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I104" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="13">
+        <v>104</v>
+      </c>
+      <c r="B105" s="8">
+        <v>4</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H105" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I105" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="13">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8">
+        <v>4</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="2"/>
+        <v>1E-8</v>
+      </c>
+      <c r="I106" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="13">
+        <v>106</v>
+      </c>
+      <c r="B107" s="8">
+        <v>4</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107" s="14">
+        <f>0.000001</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I107" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="13">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8">
+        <v>4</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H108" s="14">
+        <f t="shared" ref="H108:H121" si="3">0.000001</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I108" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="13">
+        <v>108</v>
+      </c>
+      <c r="B109" s="8">
+        <v>4</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H109" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I109" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="13">
+        <v>109</v>
+      </c>
+      <c r="B110" s="8">
+        <v>4</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H110" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I110" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="13">
+        <v>110</v>
+      </c>
+      <c r="B111" s="8">
+        <v>4</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H111" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I111" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="13">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8">
+        <v>4</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112"/>
+      <c r="H112" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I112" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="13">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8">
+        <v>4</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H113" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I113" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="13">
+        <v>113</v>
+      </c>
+      <c r="B114" s="8">
+        <v>4</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H114" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I114" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="13">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8">
+        <v>4</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H115" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I115" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="13">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8">
+        <v>4</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H116" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I116" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="13">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8">
+        <v>4</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I117" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="13">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8">
+        <v>4</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="H118" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I118" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="13">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8">
+        <v>4</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H119" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I119" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="13">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8">
+        <v>4</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="15">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="H120" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I120" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="13">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8">
+        <v>4</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="15">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="H121" s="14">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I121" s="15">
         <v>1000</v>
       </c>
     </row>
